--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/14.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/14.xlsx
@@ -479,13 +479,13 @@
         <v>-9.966512246451698</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.55678521655253</v>
+        <v>-21.53535669945484</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0890631727985251</v>
+        <v>-0.08933695718307234</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.903042976582665</v>
+        <v>-8.910684494315653</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.874611507814427</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.70567014267069</v>
+        <v>-21.68512164680905</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2203378961820584</v>
+        <v>-0.2200494447769104</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.420698448099703</v>
+        <v>-8.427626170830122</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.621810991340736</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.8955396133542</v>
+        <v>-21.87933744459725</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3722100054959043</v>
+        <v>-0.3709290856967726</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.315526132378627</v>
+        <v>-8.324116117443797</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.21586647025638</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.01607318865112</v>
+        <v>-22.00086837729502</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.395740795546366</v>
+        <v>-0.3944403197197666</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.801706177686468</v>
+        <v>-7.813816247695816</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.681058100082815</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.95777178176316</v>
+        <v>-21.94725063898556</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5180539693428441</v>
+        <v>-0.5167241594750432</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.109021906768224</v>
+        <v>-7.120305734617063</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.04635554725497</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.22941478130269</v>
+        <v>-22.21882030342209</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6619814424979533</v>
+        <v>-0.6574297771048555</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.526926971179597</v>
+        <v>-6.538797479852466</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.336327913589361</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.61656056807309</v>
+        <v>-22.60648921392724</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.830133944678626</v>
+        <v>-0.8255089441825245</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.108828881934764</v>
+        <v>-6.119716700227383</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.575613875501797</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.89391392763317</v>
+        <v>-22.88418480396801</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9519973298433481</v>
+        <v>-0.9461647446511184</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.788721157323508</v>
+        <v>-5.801105011717404</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.797051364101799</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.34711508618245</v>
+        <v>-23.33936112129152</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.05233930677991</v>
+        <v>-1.045934707784252</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.48617474537821</v>
+        <v>-5.496827891341217</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.025898609567138</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76838125187705</v>
+        <v>-23.76239710747194</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.309936189590792</v>
+        <v>-1.302588012269819</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.09471196554433</v>
+        <v>-5.106626475279001</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.280800354593499</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23623476400647</v>
+        <v>-24.23087152347347</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.228524447242924</v>
+        <v>-1.221909620951988</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.928832851556773</v>
+        <v>-4.938591309263135</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.571251523393789</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.82839616473408</v>
+        <v>-24.82390316742338</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.156514265100134</v>
+        <v>-1.148393624694188</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.843993915395198</v>
+        <v>-4.85086785905008</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.914490987230154</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43009601785904</v>
+        <v>-25.42669326907966</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.088063279956458</v>
+        <v>-1.078783944923053</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.710250243543872</v>
+        <v>-4.716674398566998</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.314273773245952</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.04858960957185</v>
+        <v>-26.04493752144226</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.043451092295859</v>
+        <v>-1.033927306919109</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.723215889754931</v>
+        <v>-4.727219986378934</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.768060200970415</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.82171515497487</v>
+        <v>-26.81747638602126</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9481594594528198</v>
+        <v>-0.939525473325848</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.667114535957082</v>
+        <v>-4.668742575243765</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.271344050699498</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.58303863780117</v>
+        <v>-27.58073102655998</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8256800594228665</v>
+        <v>-0.8179407615525401</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.692620484781777</v>
+        <v>-4.692884491152591</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.8235460028021497</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.45980379527249</v>
+        <v>-28.45562858340815</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6601871769777955</v>
+        <v>-0.653836357057673</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.943152752669967</v>
+        <v>-4.941769163726629</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.4196113011129607</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.11717232508758</v>
+        <v>-29.11460804098588</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4072739627454183</v>
+        <v>-0.3997693372047039</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.221166128157085</v>
+        <v>-5.21535798799919</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.05333099684684958</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.53975118912594</v>
+        <v>-29.53762691564226</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2030454788937802</v>
+        <v>-0.1956679675316055</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.544955274939128</v>
+        <v>-5.540271606360624</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.2753196341761175</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.13199081396341</v>
+        <v>-30.12963675715699</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2082226677579722</v>
+        <v>0.2158984085390286</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.864539875815625</v>
+        <v>-5.858321059080909</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5651521098780913</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.68954293508013</v>
+        <v>-30.68610596325269</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2599679164374</v>
+        <v>0.2657467225540934</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.133474365550883</v>
+        <v>-6.127157768678828</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8158570522564176</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.01843620503123</v>
+        <v>-31.01601859113554</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5447281214008611</v>
+        <v>0.550423814400817</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.425602303862784</v>
+        <v>-6.418972810551248</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.029480169897614</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.22720168725537</v>
+        <v>-31.2238429395378</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7406208485444092</v>
+        <v>0.7467418851417867</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.686748605659046</v>
+        <v>-6.67900930778872</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.203969034807012</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.53039344810709</v>
+        <v>-31.52662891281957</v>
       </c>
       <c r="F25" t="n">
-        <v>0.975850524939155</v>
+        <v>0.9802995211880476</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.737198267518742</v>
+        <v>-6.728911400879321</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.339671585431802</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.4411324052344</v>
+        <v>-31.43715030914129</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999655099374164</v>
+        <v>1.004382769014471</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.924109889047767</v>
+        <v>-6.913808751579177</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.437663635767531</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.54281641455593</v>
+        <v>-31.53843341989974</v>
       </c>
       <c r="F27" t="n">
-        <v>1.249190009861503</v>
+        <v>1.254460359264037</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.184772179164204</v>
+        <v>-7.174466152688748</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.49965095089022</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.35884064165048</v>
+        <v>-31.35406163743808</v>
       </c>
       <c r="F28" t="n">
-        <v>1.40850807663366</v>
+        <v>1.412458394182128</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.363440935115611</v>
+        <v>-7.350969078598111</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.52490060825428</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.16527019276872</v>
+        <v>-31.16040074192927</v>
       </c>
       <c r="F29" t="n">
-        <v>1.430327714280702</v>
+        <v>1.434703375426591</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.663083276981961</v>
+        <v>-7.650068740702234</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.513364195831424</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.05857984041547</v>
+        <v>-31.05204568273784</v>
       </c>
       <c r="F30" t="n">
-        <v>1.556732986824788</v>
+        <v>1.560023288446222</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.699252149783398</v>
+        <v>-7.684780689457329</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.463727573704639</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.77613213570006</v>
+        <v>-30.77059044641641</v>
       </c>
       <c r="F31" t="n">
-        <v>1.466579700198876</v>
+        <v>1.472128722992825</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.6461135341469</v>
+        <v>-7.634184357391627</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.372655122549162</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.37231972452035</v>
+        <v>-30.36632335759808</v>
       </c>
       <c r="F32" t="n">
-        <v>1.438868809277202</v>
+        <v>1.442863127887472</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.638936472066268</v>
+        <v>-7.628420218295534</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.236272426372993</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.8718565365886</v>
+        <v>-29.86612417603715</v>
       </c>
       <c r="F33" t="n">
-        <v>1.38526084898148</v>
+        <v>1.390404084205474</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.893678174866872</v>
+        <v>-7.882394347018032</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.052760307515061</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.29239677570124</v>
+        <v>-29.2855619441013</v>
       </c>
       <c r="F34" t="n">
-        <v>1.384287936614964</v>
+        <v>1.388961827179734</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.900708566741495</v>
+        <v>-7.888779389986223</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8183642603397503</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.8201871584534</v>
+        <v>-28.81417856901396</v>
       </c>
       <c r="F35" t="n">
-        <v>1.398852288071503</v>
+        <v>1.403795074013954</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.881514325781987</v>
+        <v>-7.871178965265329</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5303471434842698</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.19129464913466</v>
+        <v>-28.18608296781453</v>
       </c>
       <c r="F36" t="n">
-        <v>1.325067396436023</v>
+        <v>1.329169273197365</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.709108387627099</v>
+        <v>-7.701520648969646</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.1874174923388975</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.54321034335985</v>
+        <v>-27.53816244376976</v>
       </c>
       <c r="F37" t="n">
-        <v>1.414971343711722</v>
+        <v>1.419483897049884</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.625335254962511</v>
+        <v>-7.617918631545401</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.2070500435631245</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.96391680870596</v>
+        <v>-26.96023783103861</v>
       </c>
       <c r="F38" t="n">
-        <v>1.252260306173925</v>
+        <v>1.257882664070878</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.562863525217072</v>
+        <v>-7.556776711667762</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.6553134788438278</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.19652606835782</v>
+        <v>-26.19461935567973</v>
       </c>
       <c r="F39" t="n">
-        <v>1.334772075066849</v>
+        <v>1.338903285869392</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.476919673503573</v>
+        <v>-7.471986665574857</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.154785878595304</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.55482436104777</v>
+        <v>-25.55240430264865</v>
       </c>
       <c r="F40" t="n">
-        <v>1.330347523852291</v>
+        <v>1.335275642774141</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.150368237841723</v>
+        <v>-7.146408142279522</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.700007136974612</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.98393502919811</v>
+        <v>-24.98283989165992</v>
       </c>
       <c r="F41" t="n">
-        <v>1.383251467159178</v>
+        <v>1.387294675838116</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.140360440785149</v>
+        <v>-7.138355947969714</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.282081341461129</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.30257858719051</v>
+        <v>-24.30097499293816</v>
       </c>
       <c r="F42" t="n">
-        <v>1.385109289768605</v>
+        <v>1.390193856910197</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.877204757166584</v>
+        <v>-6.873811786400946</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.897237011479077</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.61909053818893</v>
+        <v>-23.61744783188165</v>
       </c>
       <c r="F43" t="n">
-        <v>1.337016129218763</v>
+        <v>1.341988249202416</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.823415903616787</v>
+        <v>-6.821186516485473</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.536575812028095</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.93032236177109</v>
+        <v>-22.92971612491959</v>
       </c>
       <c r="F44" t="n">
-        <v>1.447571241500311</v>
+        <v>1.452093572852207</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.741192586129011</v>
+        <v>-6.739075646155637</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.186310547432457</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.09676624698956</v>
+        <v>-22.0962577902754</v>
       </c>
       <c r="F45" t="n">
-        <v>1.493787023413258</v>
+        <v>1.499233377063001</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.592214768880378</v>
+        <v>-6.591168521410859</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.834978174354005</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.57514832634467</v>
+        <v>-21.57532433059188</v>
       </c>
       <c r="F46" t="n">
-        <v>1.487054860957516</v>
+        <v>1.492550104675928</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.479327600323312</v>
+        <v>-6.476374640175696</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.473775920382966</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.88836019770792</v>
+        <v>-20.89051136072936</v>
       </c>
       <c r="F47" t="n">
-        <v>1.56715634946505</v>
+        <v>1.571576011672742</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.458387983912316</v>
+        <v>-6.456471493220485</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.091751566272218</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.24929366509913</v>
+        <v>-20.25295553124245</v>
       </c>
       <c r="F48" t="n">
-        <v>1.614848611451806</v>
+        <v>1.61893093218568</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.435463430713352</v>
+        <v>-6.434490518346836</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.671425437557331</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.47683058012657</v>
+        <v>-19.48113779517632</v>
       </c>
       <c r="F49" t="n">
-        <v>1.756346248194058</v>
+        <v>1.760839245504753</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.199422179178698</v>
+        <v>-6.198693717155527</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.204590249638372</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.08097258311934</v>
+        <v>-19.08669272115363</v>
       </c>
       <c r="F50" t="n">
-        <v>1.750895005537448</v>
+        <v>1.756346248194058</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.212035816895338</v>
+        <v>-6.210231773361447</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.683334382752337</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.50209950305601</v>
+        <v>-18.50741874252721</v>
       </c>
       <c r="F51" t="n">
-        <v>1.725384167705886</v>
+        <v>1.728371350901571</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.267281594491477</v>
+        <v>-6.264641530783344</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.099885389527282</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.03272550979097</v>
+        <v>-18.03545846462957</v>
       </c>
       <c r="F52" t="n">
-        <v>1.72718332223291</v>
+        <v>1.731994104989955</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.276722266751491</v>
+        <v>-6.274649327839918</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.442979776757509</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.6303113545752</v>
+        <v>-17.63403677780779</v>
       </c>
       <c r="F53" t="n">
-        <v>1.81242804596444</v>
+        <v>1.817468612044229</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.184344482001133</v>
+        <v>-6.183347124600282</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.711382214197377</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.00161440553114</v>
+        <v>-17.00604873475943</v>
       </c>
       <c r="F54" t="n">
-        <v>1.86824094835714</v>
+        <v>1.873667745979416</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.186803652455191</v>
+        <v>-6.18521961423031</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.90611800460451</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.79198845809843</v>
+        <v>-16.79515653454819</v>
       </c>
       <c r="F55" t="n">
-        <v>1.855700645743504</v>
+        <v>1.859714520381241</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.42256623059843</v>
+        <v>-6.420473735659391</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.02570688685249</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.23600081917913</v>
+        <v>-16.23825954035164</v>
       </c>
       <c r="F56" t="n">
-        <v>1.886105379448848</v>
+        <v>1.889684132475429</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.320596214375185</v>
+        <v>-6.31840105029194</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.068494574059134</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.13934515342022</v>
+        <v>-16.14130564517385</v>
       </c>
       <c r="F57" t="n">
-        <v>1.92671835949231</v>
+        <v>1.9304584497455</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.504667322914533</v>
+        <v>-6.500443220981518</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.038271140756201</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.9217256797601</v>
+        <v>-15.92289904140816</v>
       </c>
       <c r="F58" t="n">
-        <v>1.81047733222454</v>
+        <v>1.814271201553266</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.657722571890172</v>
+        <v>-6.653566916053294</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.943519051246733</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66122472687027</v>
+        <v>-15.66188963180417</v>
       </c>
       <c r="F59" t="n">
-        <v>1.867571154416373</v>
+        <v>1.871237909566559</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.427073894929726</v>
+        <v>-6.425054735093689</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.786297384579374</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.4367704216102</v>
+        <v>-15.43650641523939</v>
       </c>
       <c r="F60" t="n">
-        <v>1.934491880410705</v>
+        <v>1.938046188402952</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.456158596781003</v>
+        <v>-6.455405689723498</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.569946913787362</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29174292191004</v>
+        <v>-15.29084334464653</v>
       </c>
       <c r="F61" t="n">
-        <v>1.879138544663494</v>
+        <v>1.882722186696943</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.289971475360829</v>
+        <v>-6.290391929951384</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.301907295206298</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.262061761221</v>
+        <v>-15.25975903898668</v>
       </c>
       <c r="F62" t="n">
-        <v>1.87518333810816</v>
+        <v>1.879999009872071</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.372600580418559</v>
+        <v>-6.372493022267487</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.991107331095103</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.20920670798278</v>
+        <v>-15.20545683971586</v>
       </c>
       <c r="F63" t="n">
-        <v>1.862408363164911</v>
+        <v>1.866251122562306</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.409708142538443</v>
+        <v>-6.411556187134138</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.639298082392568</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.25793055041846</v>
+        <v>-15.25288998433867</v>
       </c>
       <c r="F64" t="n">
-        <v>1.705534799826211</v>
+        <v>1.709954462033902</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.401572835111897</v>
+        <v>-6.40392933642175</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.24792853499944</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.3034960944181</v>
+        <v>-15.29712082946365</v>
       </c>
       <c r="F65" t="n">
-        <v>1.70046489970522</v>
+        <v>1.705094789208189</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.504535319729126</v>
+        <v>-6.507234051519663</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.823940160696915</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.31056559834766</v>
+        <v>-15.30381876887132</v>
       </c>
       <c r="F66" t="n">
-        <v>1.794974291449553</v>
+        <v>1.798293927112188</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.452452729575881</v>
+        <v>-6.454334997219643</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.371397427178307</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.18970934859752</v>
+        <v>-15.18227805815981</v>
       </c>
       <c r="F67" t="n">
-        <v>1.617874906702426</v>
+        <v>1.620813199829442</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.211630029325384</v>
+        <v>-6.215492344750247</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.890831101806723</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.32065650852097</v>
+        <v>-15.31171451496139</v>
       </c>
       <c r="F68" t="n">
-        <v>1.579031747144787</v>
+        <v>1.582551832088966</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.333508081510708</v>
+        <v>-6.337688182381919</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.378708341408813</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.22940319535001</v>
+        <v>-15.2200798592548</v>
       </c>
       <c r="F69" t="n">
-        <v>1.545473604010283</v>
+        <v>1.550225718684924</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.195765202042246</v>
+        <v>-6.197075455882579</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.840233356507316</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.27975996607923</v>
+        <v>-15.27012373354454</v>
       </c>
       <c r="F70" t="n">
-        <v>1.47321408251728</v>
+        <v>1.476284378829702</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.137258456865874</v>
+        <v>-6.140538980473575</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.274064910586</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.30456189791509</v>
+        <v>-15.29469099305079</v>
       </c>
       <c r="F71" t="n">
-        <v>1.364678130071768</v>
+        <v>1.367987987720669</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.141555893901892</v>
+        <v>-6.144220402644361</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.676920744349033</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.42372655128927</v>
+        <v>-15.41344985885502</v>
       </c>
       <c r="F72" t="n">
-        <v>1.287231372292968</v>
+        <v>1.290022995213977</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.006374854031694</v>
+        <v>-6.008335345785327</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.042186672175534</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.53265362428414</v>
+        <v>-15.5226409382207</v>
       </c>
       <c r="F73" t="n">
-        <v>1.21879994317676</v>
+        <v>1.221014663287472</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.155567787582471</v>
+        <v>-6.156970932553276</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.370671188535008</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.64908043381285</v>
+        <v>-15.63962509453224</v>
       </c>
       <c r="F74" t="n">
-        <v>1.08411269300012</v>
+        <v>1.087676779006101</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.067839448362549</v>
+        <v>-6.068734136619194</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.661324761074359</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.9020718721551</v>
+        <v>-15.89184895879638</v>
       </c>
       <c r="F75" t="n">
-        <v>1.026021513407436</v>
+        <v>1.029776270681227</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.103216302051545</v>
+        <v>-6.103563421539096</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.9098097258958017</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.92362750343133</v>
+        <v>-15.91350237020995</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8119465697258315</v>
+        <v>0.8170360258742899</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.221378709018013</v>
+        <v>-6.221549824258355</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1150121795045435</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.9814546766532</v>
+        <v>-15.97283046853996</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6660194927621541</v>
+        <v>0.6703413748325069</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.153284621375621</v>
+        <v>-6.153147729183348</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.7188353634685282</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.12400344987184</v>
+        <v>-16.11629837504958</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6826470051165318</v>
+        <v>0.6865777666375315</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.125720400659955</v>
+        <v>-6.125764401721757</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.580486802642423</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.24834067251122</v>
+        <v>-16.24057692960656</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3965178782303345</v>
+        <v>0.4012211028363066</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.145569768539629</v>
+        <v>-6.144288848740498</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>2.466544559785084</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.7278006869427</v>
+        <v>-16.72069695996507</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3801299272124355</v>
+        <v>0.3852340503814948</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.109972909541622</v>
+        <v>-6.106956392304736</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.363111739726918</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.19383548851764</v>
+        <v>-17.18906870682239</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2088973507056064</v>
+        <v>0.213805913599989</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.213140732447261</v>
+        <v>-6.208828628390642</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>4.253273640684679</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.62722639124217</v>
+        <v>-17.62241560848513</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.09623534587228932</v>
+        <v>-0.09213835811781461</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.262505034782501</v>
+        <v>-6.258104928602278</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>5.114810958881697</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.10728286451142</v>
+        <v>-18.10412945508226</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1064778152584761</v>
+        <v>-0.1022097122636594</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.307376339807047</v>
+        <v>-6.30112818903113</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>5.934188181296007</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.8839993854582</v>
+        <v>-18.88137398877067</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.202082344540998</v>
+        <v>-0.1983373652809411</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.3346618871313</v>
+        <v>-6.327093704501315</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>6.690703288323721</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.57086573820482</v>
+        <v>-19.56893946949925</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3592541372985797</v>
+        <v>-0.3549029211870254</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.43372294426873</v>
+        <v>-6.424859174819013</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>7.363360144571191</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.22738113632162</v>
+        <v>-20.22627133176283</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5196331185608577</v>
+        <v>-0.5143676581651903</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.689789567930267</v>
+        <v>-6.679962664127769</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>7.932776681022032</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.97876771269091</v>
+        <v>-20.97807836272268</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6215786897497682</v>
+        <v>-0.6162447832579639</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.021386458678774</v>
+        <v>-7.010474195351819</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>8.385616794558343</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.82808109660451</v>
+        <v>-21.82704462714873</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7343974122106975</v>
+        <v>-0.7293812911652428</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.30494885695984</v>
+        <v>-7.291724093384835</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>8.709194992362981</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81941035198825</v>
+        <v>-22.8196841363728</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9482767956176258</v>
+        <v>-0.943148227414232</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.381984938161819</v>
+        <v>-7.368266384893256</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>8.891629389041476</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.8842702706504</v>
+        <v>-23.88702278151647</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.198417942956462</v>
+        <v>-1.194159617975379</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.746196393719515</v>
+        <v>-7.732776069869834</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>8.928150926920651</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.09670486159037</v>
+        <v>-25.10109518975686</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.126754880301223</v>
+        <v>-1.123743252071203</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.116959118478878</v>
+        <v>-8.103064560963105</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>8.820108546022377</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.36559770382948</v>
+        <v>-26.37150851313158</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.340502260522744</v>
+        <v>-1.338551546782845</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.408128811444865</v>
+        <v>-8.393227118514508</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>8.574369039658622</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.62807861356262</v>
+        <v>-27.63572257579904</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.625502026822684</v>
+        <v>-1.621463707150613</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.719084315201256</v>
+        <v>-8.704226623332701</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>8.198570134077583</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.13018441686387</v>
+        <v>-29.14006021073504</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.867439420638837</v>
+        <v>-1.864892248061175</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.054831972779773</v>
+        <v>-9.040072061048557</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>7.708333482287457</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.76175356650446</v>
+        <v>-30.77213048357949</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.126683898763869</v>
+        <v>-2.125329643861734</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.331280866069479</v>
+        <v>-9.3172689723889</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>7.117923247042948</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.60378712825544</v>
+        <v>-32.61458938892789</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.143697642660733</v>
+        <v>-2.143110961836704</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.684653393403224</v>
+        <v>-9.671262403594744</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>6.457382481434161</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.32217037283184</v>
+        <v>-34.33411666111115</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.49773507492838</v>
+        <v>-2.496908832767871</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.0484101713223</v>
+        <v>-10.03535163398077</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>5.723586289362865</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.30980344808641</v>
+        <v>-36.32316754835713</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.893597960942483</v>
+        <v>-2.89274727374764</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.48311132788717</v>
+        <v>-10.47192528017567</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.958641935142366</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.3390835283368</v>
+        <v>-38.35458901361522</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.168526373096578</v>
+        <v>-3.167177007201309</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.82024746341589</v>
+        <v>-10.80969698659709</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.135306089049945</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.54342427747081</v>
+        <v>-40.55908865547241</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.529569752204513</v>
+        <v>-3.528005270007101</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.00340432767113</v>
+        <v>-10.99274140369439</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.333670609296533</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.45718934797316</v>
+        <v>-42.47210081891726</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.9605454855368</v>
+        <v>-3.959494349060413</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.25569174902454</v>
+        <v>-11.24681331255422</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.43024911796969</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.72266957248138</v>
+        <v>-44.73787438383749</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.199994374857693</v>
+        <v>-4.19782854481565</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.39686182230671</v>
+        <v>-11.38781715960292</v>
       </c>
     </row>
   </sheetData>
